--- a/biology/Zoologie/Guibemantis_liber/Guibemantis_liber.xlsx
+++ b/biology/Zoologie/Guibemantis_liber/Guibemantis_liber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis liber est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis liber est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 2 050 m d'altitude sur un large territoire dans le Nord et l'Est de l'île ainsi que sur l'île Sainte-Marie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 2 050 m d'altitude sur un large territoire dans le Nord et l'Est de l'île ainsi que sur l'île Sainte-Marie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis liber mesure de 21 à 29 mm pour les mâles et de 27 à 28 mm pour les femelles. Son dos est d'une coloration très variable : rougeâtre, grisâtre ou verdâtre avec souvent une barre sombre entre les yeux et une ligne longitudinale claire et des taches blanches ou jaunes au niveau de l'aine. Son ventre est de couleur vert pâle chez les femelles ; les mâles présentent une gorge blanc brillant[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis liber mesure de 21 à 29 mm pour les mâles et de 27 à 28 mm pour les femelles. Son dos est d'une coloration très variable : rougeâtre, grisâtre ou verdâtre avec souvent une barre sombre entre les yeux et une ligne longitudinale claire et des taches blanches ou jaunes au niveau de l'aine. Son ventre est de couleur vert pâle chez les femelles ; les mâles présentent une gorge blanc brillant.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peracca, 1893 : Descrizione di nuove specie di rettili e anfibi di Madagascar. Bollettino dei Musei di Zoologia e Anatomia Comparata della R. Universita di Torino, vol. 8, no 156, p. 1-16 (texte intégral).</t>
         </is>
